--- a/data/trans_dic/P36BPD04_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R_2023-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.7759404559254882</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8028516939395399</v>
+        <v>0.8028516939395398</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7885904778920295</v>
+        <v>0.7885904778920293</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7368493639924563</v>
+        <v>0.732259510588836</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7653332351086791</v>
+        <v>0.7695379383112512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7599245126438948</v>
+        <v>0.7624151580485211</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8138475154327435</v>
+        <v>0.8107836486879689</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8344789048187619</v>
+        <v>0.8324600465901129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8116082223343334</v>
+        <v>0.8134357759724091</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7713406968834218</v>
+        <v>0.7713406968834217</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7794521364952802</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7272761731037259</v>
+        <v>0.7280191208264858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7380831448056479</v>
+        <v>0.7383289113781266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7476527776059386</v>
+        <v>0.7494382299248985</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8115085598099347</v>
+        <v>0.8114765728585417</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8120282114914245</v>
+        <v>0.8109327739009765</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7994556266953089</v>
+        <v>0.8045155276223029</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7670398760564439</v>
+        <v>0.7670398760564436</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8233035209623378</v>
+        <v>0.8233035209623377</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7830104807615536</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.723099891669269</v>
+        <v>0.7266272271224689</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7703676539717955</v>
+        <v>0.7710793756018719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7505853455322792</v>
+        <v>0.7524676094135279</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8078430786495053</v>
+        <v>0.8081096990827136</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8654852929165838</v>
+        <v>0.8628707477373926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8156887528965127</v>
+        <v>0.8118077975527352</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7555242639023377</v>
+        <v>0.7555242639023378</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7733021323883685</v>
+        <v>0.7733021323883686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.763204771821004</v>
+        <v>0.7632047718210041</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7288012488745076</v>
+        <v>0.7222303193596336</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7478812462985378</v>
+        <v>0.749963757508885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7424823394526564</v>
+        <v>0.7450021180202699</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7822690913007777</v>
+        <v>0.783782466321058</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7990332601870246</v>
+        <v>0.8022023081273516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7822186740597491</v>
+        <v>0.7839305844429362</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7480815849289811</v>
+        <v>0.748081584928981</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7998491818326217</v>
+        <v>0.7998491818326218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.778845488220637</v>
+        <v>0.7788454882206369</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7041519584639594</v>
+        <v>0.7066847683340151</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7758504116935402</v>
+        <v>0.7751002295873193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7550167125940905</v>
+        <v>0.7572035814091086</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7823788426561012</v>
+        <v>0.7834077030201338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8256470682847687</v>
+        <v>0.8224861660749887</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8009200966427374</v>
+        <v>0.7994122226904253</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7490491915180629</v>
+        <v>0.7490491915180627</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8037610834834767</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6575867033305696</v>
+        <v>0.6497476399207841</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7739569428720555</v>
+        <v>0.7779193024434554</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7594840001474473</v>
+        <v>0.7601699077246893</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8310409470835115</v>
+        <v>0.8284888931976512</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8310946814292561</v>
+        <v>0.8305572638099612</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8189226815728868</v>
+        <v>0.8208402896505109</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.7937074062715226</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7777594045168804</v>
+        <v>0.7777594045168807</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7431248415916737</v>
+        <v>0.7450033792405787</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7819041524137909</v>
+        <v>0.7806374605891978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7671940631447781</v>
+        <v>0.7666225537123632</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7762468486020641</v>
+        <v>0.7756717039331308</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8071088760876219</v>
+        <v>0.806466390164678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7881581580057123</v>
+        <v>0.7872823194735882</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>405723</v>
+        <v>403195</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>373797</v>
+        <v>375851</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>789584</v>
+        <v>792171</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>448119</v>
+        <v>446432</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>407569</v>
+        <v>406583</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>843284</v>
+        <v>845183</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>351429</v>
+        <v>351788</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>312315</v>
+        <v>312419</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>677639</v>
+        <v>679257</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>392131</v>
+        <v>392115</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>343604</v>
+        <v>343141</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>724591</v>
+        <v>729177</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>341023</v>
+        <v>342686</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>144004</v>
+        <v>144137</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>494290</v>
+        <v>495530</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>380988</v>
+        <v>381114</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>161784</v>
+        <v>161296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>537164</v>
+        <v>534608</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>824074</v>
+        <v>816644</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>643238</v>
+        <v>645029</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1478138</v>
+        <v>1483154</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>884531</v>
+        <v>886242</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>687233</v>
+        <v>689958</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1557245</v>
+        <v>1560653</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>399171</v>
+        <v>400607</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>644193</v>
+        <v>643570</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1054900</v>
+        <v>1057956</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>443516</v>
+        <v>444100</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>685540</v>
+        <v>682915</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1119036</v>
+        <v>1116929</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>155998</v>
+        <v>154138</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>653128</v>
+        <v>656471</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>821085</v>
+        <v>821827</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>197146</v>
+        <v>196541</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>701345</v>
+        <v>700891</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>885345</v>
+        <v>887418</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2556555</v>
+        <v>2563017</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2840462</v>
+        <v>2835861</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5426384</v>
+        <v>5422341</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2670503</v>
+        <v>2668525</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2932025</v>
+        <v>2929691</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5574663</v>
+        <v>5568468</v>
       </c>
     </row>
     <row r="32">
